--- a/data/Perp/Figure6_SourceData.xlsx
+++ b/data/Perp/Figure6_SourceData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Desktop\data\Perpendicular\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Documents\GitHub\Lapsansky_Zatz_Tobalske_eLife_2020\data\Perp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBD3285-9B9D-4B5D-9044-F5DE89411A45}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05419E9D-AC5F-4E6E-A34D-4FC7F902FB2B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EF19ECF3-129E-4E31-8B12-0B44D417964C}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF19ECF3-129E-4E31-8B12-0B44D417964C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -139,6 +139,9 @@
     <t>This excel sheet contains the data for plotting Figure 6 using the MatLab script labeled "…DataVisualization"</t>
   </si>
   <si>
+    <t>See details in the methods for the calculation of chord angle.</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -155,9 +158,6 @@
   </si>
   <si>
     <t>The average chord angle (deg) for that run at mid-downstroke. This value was calculated with the excel file containing the digitized points and simply averaged.</t>
-  </si>
-  <si>
-    <t>See details in the methods for the calculation of chord angle. The actual chord angles were computed within the excel files for each run and then averaged before copying to this sheet.</t>
   </si>
 </sst>
 </file>
@@ -551,9 +551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCF216B-94A0-4507-B9C5-FB46C035DD38}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -578,7 +578,7 @@
         <v>25</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>30</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="4">
-        <v>19.308855900000001</v>
+        <v>18.93</v>
       </c>
       <c r="G7" s="4">
-        <v>27.901513766000001</v>
+        <v>26.87</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -791,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="4">
-        <v>26.201509983333334</v>
+        <v>23.8</v>
       </c>
       <c r="G10" s="4">
-        <v>35.812850166666671</v>
+        <v>34.46</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -1570,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCC6423-AD57-4AF9-BFF6-271F03FAD225}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -1610,7 +1610,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>30</v>
@@ -1626,19 +1626,19 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
